--- a/src/excel/SpanishEnglish-CLOTH.xlsx
+++ b/src/excel/SpanishEnglish-CLOTH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3104C6-B57A-42B1-9E6C-87D57E20B2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A7799F-FE44-4BB8-8F92-1D6824A7A912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BF021D60-298D-4A36-B692-C3A71A52DAC8}"/>
+    <workbookView xWindow="10065" yWindow="3735" windowWidth="10425" windowHeight="7065" xr2:uid="{BF021D60-298D-4A36-B692-C3A71A52DAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
-  <si>
-    <t>camisa de entrenamiento</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>sudadera</t>
   </si>
@@ -52,9 +49,6 @@
     <t>español</t>
   </si>
   <si>
-    <t>inglés</t>
-  </si>
-  <si>
     <t>jean</t>
   </si>
   <si>
@@ -212,6 +206,99 @@
   </si>
   <si>
     <t>tee/t-shirt</t>
+  </si>
+  <si>
+    <t>su'etsherts</t>
+  </si>
+  <si>
+    <t>camisas de entrenamiento</t>
+  </si>
+  <si>
+    <t>jodis</t>
+  </si>
+  <si>
+    <t>activuer</t>
+  </si>
+  <si>
+    <t>launshuer</t>
+  </si>
+  <si>
+    <t>yin</t>
+  </si>
+  <si>
+    <t>dres</t>
+  </si>
+  <si>
+    <t>yaket</t>
+  </si>
+  <si>
+    <t>cout</t>
+  </si>
+  <si>
+    <t>su'erer</t>
+  </si>
+  <si>
+    <t>tii/ti shert</t>
+  </si>
+  <si>
+    <t>tenk top</t>
+  </si>
+  <si>
+    <t>pent</t>
+  </si>
+  <si>
+    <t>esk'ert</t>
+  </si>
+  <si>
+    <t>shert</t>
+  </si>
+  <si>
+    <t>blaus</t>
+  </si>
+  <si>
+    <t>sudieng</t>
+  </si>
+  <si>
+    <t>bleizer</t>
+  </si>
+  <si>
+    <t>onderuer</t>
+  </si>
+  <si>
+    <t>polouver</t>
+  </si>
+  <si>
+    <t>u'iendbreiker</t>
+  </si>
+  <si>
+    <t>yager</t>
+  </si>
+  <si>
+    <t>su'etpent</t>
+  </si>
+  <si>
+    <t>tunec</t>
+  </si>
+  <si>
+    <t>kardegen</t>
+  </si>
+  <si>
+    <t>badisut</t>
+  </si>
+  <si>
+    <t>bral'et</t>
+  </si>
+  <si>
+    <t>penti</t>
+  </si>
+  <si>
+    <t>chem'is</t>
+  </si>
+  <si>
+    <t>roub</t>
+  </si>
+  <si>
+    <t>leging</t>
   </si>
 </sst>
 </file>
@@ -570,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252A3F17-CDA2-4A15-98D1-2F0C785E2DDF}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,450 +669,450 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
